--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_12_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_12_5.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H3" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +544,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H4" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +575,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H5" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="6">
@@ -606,28 +606,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H6" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="7">
@@ -637,28 +637,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H7" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="8">
@@ -668,28 +668,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H8" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="9">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H9" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="10">
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H10" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="11">
@@ -761,28 +761,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H11" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="12">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H12" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="13">
@@ -823,28 +823,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H13" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H14" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="15">
@@ -885,28 +885,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H15" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="16">
@@ -916,28 +916,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H16" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="17">
@@ -947,28 +947,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H17" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="18">
@@ -978,28 +978,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H18" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="19">
@@ -1009,28 +1009,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H19" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="20">
@@ -1040,28 +1040,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H20" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="21">
@@ -1071,28 +1071,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H21" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="22">
@@ -1102,28 +1102,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H22" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="23">
@@ -1133,28 +1133,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H23" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="24">
@@ -1164,28 +1164,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H24" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="25">
@@ -1195,28 +1195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H25" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
     <row r="26">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7675902185374929</v>
+        <v>0.353672031788087</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7066744072542633</v>
+        <v>-2.142122532649438</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3748558831755715</v>
+        <v>-0.5000481927095577</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6105205852371469</v>
+        <v>-0.8706523448567105</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2572091519832611</v>
+        <v>0.7152945399284363</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1297875195741653</v>
+        <v>0.6458885073661804</v>
       </c>
       <c r="H26" t="n">
-        <v>0.131216749548912</v>
+        <v>0.7320140600204468</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1304607838392258</v>
+        <v>0.6864180564880371</v>
       </c>
     </row>
   </sheetData>
